--- a/模板样式.xlsx
+++ b/模板样式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -112,6 +112,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="9"/>
       <color theme="3" tint="0.4"/>
@@ -126,29 +133,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,15 +174,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,8 +202,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,27 +226,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,36 +269,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -285,13 +285,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,176 +469,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="42">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -806,6 +806,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -843,6 +852,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -870,6 +888,126 @@
       <top/>
       <bottom style="hair">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,6 +1027,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -907,67 +1065,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,152 +1075,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1292,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,18 +1302,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,15 +1313,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1580,54 +1683,84 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="41"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="45" t="s">
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
+      <c r="A6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" ht="14.25" spans="5:5">
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" ht="14.25" spans="5:5">
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" ht="14.25" spans="5:5">
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="53"/>
+    </row>
+    <row r="11" ht="14.25" spans="5:5">
+      <c r="E11" s="54"/>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="55"/>
+    </row>
+    <row r="13" ht="14.25" spans="5:5">
+      <c r="E13" s="56"/>
+    </row>
+    <row r="14" ht="14.25" spans="5:5">
+      <c r="E14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1644,8 +1777,8 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
